--- a/content/ensino/segundo-semestre-de-2022/mes-10-dia-9-ava-matc65.xlsx
+++ b/content/ensino/segundo-semestre-de-2022/mes-10-dia-9-ava-matc65.xlsx
@@ -452,25 +452,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -493,16 +493,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -685,16 +685,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -877,16 +877,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -897,28 +897,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -935,22 +935,22 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1188,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1261,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1453,16 +1453,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1854,13 +1854,13 @@
         <v>220217141</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
